--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N2">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q2">
-        <v>0.2744010283590166</v>
+        <v>0.1060994787908889</v>
       </c>
       <c r="R2">
-        <v>0.2744010283590166</v>
+        <v>0.954895309118</v>
       </c>
       <c r="S2">
-        <v>0.0008823204639321576</v>
+        <v>0.0002498526100019089</v>
       </c>
       <c r="T2">
-        <v>0.0008823204639321576</v>
+        <v>0.0002498526100019088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N3">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q3">
-        <v>1.8018508138291</v>
+        <v>0.3068103316975555</v>
       </c>
       <c r="R3">
-        <v>1.8018508138291</v>
+        <v>2.761292985278</v>
       </c>
       <c r="S3">
-        <v>0.005793745947315387</v>
+        <v>0.0007225046062786922</v>
       </c>
       <c r="T3">
-        <v>0.005793745947315387</v>
+        <v>0.0007225046062786922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N4">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q4">
-        <v>0.3518297940734814</v>
+        <v>0.087207933042</v>
       </c>
       <c r="R4">
-        <v>0.3518297940734814</v>
+        <v>0.784871397378</v>
       </c>
       <c r="S4">
-        <v>0.00113128813324241</v>
+        <v>0.0002053650963390643</v>
       </c>
       <c r="T4">
-        <v>0.00113128813324241</v>
+        <v>0.0002053650963390643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H5">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I5">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J5">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N5">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q5">
-        <v>14.64040345597397</v>
+        <v>0.7110842816427778</v>
       </c>
       <c r="R5">
-        <v>14.64040345597397</v>
+        <v>6.399758534785001</v>
       </c>
       <c r="S5">
-        <v>0.04707536136682433</v>
+        <v>0.001674525320241604</v>
       </c>
       <c r="T5">
-        <v>0.04707536136682433</v>
+        <v>0.001674525320241604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H6">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I6">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J6">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N6">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q6">
-        <v>96.13602047955391</v>
+        <v>2.056258963776111</v>
       </c>
       <c r="R6">
-        <v>96.13602047955391</v>
+        <v>18.506330673985</v>
       </c>
       <c r="S6">
-        <v>0.3091197532945549</v>
+        <v>0.004842263833848354</v>
       </c>
       <c r="T6">
-        <v>0.3091197532945549</v>
+        <v>0.004842263833848354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H7">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I7">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J7">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N7">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O7">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P7">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q7">
-        <v>18.77154092268456</v>
+        <v>0.584472149415</v>
       </c>
       <c r="R7">
-        <v>18.77154092268456</v>
+        <v>5.260249344735</v>
       </c>
       <c r="S7">
-        <v>0.06035879236558368</v>
+        <v>0.001376367666165233</v>
       </c>
       <c r="T7">
-        <v>0.06035879236558368</v>
+        <v>0.001376367666165233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H8">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I8">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J8">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N8">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O8">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P8">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q8">
-        <v>9.534511334256571</v>
+        <v>39.221066245659</v>
       </c>
       <c r="R8">
-        <v>9.534511334256571</v>
+        <v>352.989596210931</v>
       </c>
       <c r="S8">
-        <v>0.03065766376356673</v>
+        <v>0.092361299793465</v>
       </c>
       <c r="T8">
-        <v>0.03065766376356673</v>
+        <v>0.092361299793465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H9">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I9">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J9">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N9">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P9">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q9">
-        <v>62.60824571187678</v>
+        <v>113.416469915739</v>
       </c>
       <c r="R9">
-        <v>62.60824571187678</v>
+        <v>1020.748229241651</v>
       </c>
       <c r="S9">
-        <v>0.2013131537182392</v>
+        <v>0.267083319810651</v>
       </c>
       <c r="T9">
-        <v>0.2013131537182392</v>
+        <v>0.267083319810651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H10">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I10">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J10">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N10">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O10">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P10">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q10">
-        <v>12.2249001010806</v>
+        <v>32.237558166789</v>
       </c>
       <c r="R10">
-        <v>12.2249001010806</v>
+        <v>290.138023501101</v>
       </c>
       <c r="S10">
-        <v>0.03930845155068926</v>
+        <v>0.07591590590124804</v>
       </c>
       <c r="T10">
-        <v>0.03930845155068926</v>
+        <v>0.07591590590124804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H11">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I11">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J11">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N11">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O11">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P11">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q11">
-        <v>10.69716392629091</v>
+        <v>24.064868477868</v>
       </c>
       <c r="R11">
-        <v>10.69716392629091</v>
+        <v>216.583816300812</v>
       </c>
       <c r="S11">
-        <v>0.03439610519919248</v>
+        <v>0.05667012003327872</v>
       </c>
       <c r="T11">
-        <v>0.03439610519919248</v>
+        <v>0.05667012003327872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H12">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I12">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J12">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N12">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O12">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P12">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q12">
-        <v>70.24278896299265</v>
+        <v>69.58894015402799</v>
       </c>
       <c r="R12">
-        <v>70.24278896299265</v>
+        <v>626.3004613862521</v>
       </c>
       <c r="S12">
-        <v>0.2258615811914095</v>
+        <v>0.163874304783518</v>
       </c>
       <c r="T12">
-        <v>0.2258615811914095</v>
+        <v>0.163874304783518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>63.709236</v>
+      </c>
+      <c r="H13">
+        <v>191.127708</v>
+      </c>
+      <c r="I13">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J13">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.310473</v>
+      </c>
+      <c r="N13">
+        <v>0.931419</v>
+      </c>
+      <c r="O13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q13">
+        <v>19.779997628628</v>
+      </c>
+      <c r="R13">
+        <v>178.019978657652</v>
+      </c>
+      <c r="S13">
+        <v>0.04657972018019627</v>
+      </c>
+      <c r="T13">
+        <v>0.04657972018019627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H14">
+        <v>205.966888</v>
+      </c>
+      <c r="I14">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J14">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.133189</v>
+      </c>
+      <c r="O14">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P14">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q14">
+        <v>25.93326798287022</v>
+      </c>
+      <c r="R14">
+        <v>233.399411845832</v>
+      </c>
+      <c r="S14">
+        <v>0.06106999549139613</v>
+      </c>
+      <c r="T14">
+        <v>0.06106999549139613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H15">
+        <v>205.966888</v>
+      </c>
+      <c r="I15">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J15">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.276869</v>
+      </c>
+      <c r="O15">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P15">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q15">
+        <v>74.99183447929688</v>
+      </c>
+      <c r="R15">
+        <v>674.926510313672</v>
+      </c>
+      <c r="S15">
+        <v>0.1765975270284972</v>
+      </c>
+      <c r="T15">
+        <v>0.1765975270284972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="H13">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="I13">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="J13">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="N13">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="O13">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="P13">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="Q13">
-        <v>13.71562272876422</v>
-      </c>
-      <c r="R13">
-        <v>13.71562272876422</v>
-      </c>
-      <c r="S13">
-        <v>0.04410178300545003</v>
-      </c>
-      <c r="T13">
-        <v>0.04410178300545003</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H16">
+        <v>205.966888</v>
+      </c>
+      <c r="I16">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J16">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.310473</v>
+      </c>
+      <c r="N16">
+        <v>0.931419</v>
+      </c>
+      <c r="O16">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P16">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q16">
+        <v>21.315719206008</v>
+      </c>
+      <c r="R16">
+        <v>191.841472854072</v>
+      </c>
+      <c r="S16">
+        <v>0.05019617568702193</v>
+      </c>
+      <c r="T16">
+        <v>0.05019617568702192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.415529</v>
+      </c>
+      <c r="I17">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J17">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.133189</v>
+      </c>
+      <c r="O17">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P17">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q17">
+        <v>0.05231921022011111</v>
+      </c>
+      <c r="R17">
+        <v>0.470872891981</v>
+      </c>
+      <c r="S17">
+        <v>0.0001232059890934719</v>
+      </c>
+      <c r="T17">
+        <v>0.0001232059890934718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.415529</v>
+      </c>
+      <c r="I18">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J18">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.276869</v>
+      </c>
+      <c r="O18">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P18">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q18">
+        <v>0.1512926776334445</v>
+      </c>
+      <c r="R18">
+        <v>1.361634098701</v>
+      </c>
+      <c r="S18">
+        <v>0.0003562776255988507</v>
+      </c>
+      <c r="T18">
+        <v>0.0003562776255988507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.415529</v>
+      </c>
+      <c r="I19">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J19">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.310473</v>
+      </c>
+      <c r="N19">
+        <v>0.931419</v>
+      </c>
+      <c r="O19">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P19">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q19">
+        <v>0.043003511739</v>
+      </c>
+      <c r="R19">
+        <v>0.387031605651</v>
+      </c>
+      <c r="S19">
+        <v>0.0001012685431604547</v>
+      </c>
+      <c r="T19">
+        <v>0.0001012685431604546</v>
       </c>
     </row>
   </sheetData>
